--- a/team_specific_matrix/William & Mary_B.xlsx
+++ b/team_specific_matrix/William & Mary_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1890547263681592</v>
+        <v>0.1868852459016394</v>
       </c>
       <c r="C2">
-        <v>0.5771144278606966</v>
+        <v>0.580327868852459</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02985074626865672</v>
+        <v>0.01967213114754099</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004975124378109453</v>
+        <v>0.003278688524590164</v>
       </c>
       <c r="P2">
-        <v>0.09950248756218906</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09950248756218906</v>
+        <v>0.07868852459016394</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.008474576271186441</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02542372881355932</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6864406779661016</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2796610169491525</v>
+        <v>0.2216216216216216</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.71875</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.21875</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06535947712418301</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006535947712418301</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0457516339869281</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3006535947712418</v>
+        <v>0.2604651162790698</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0196078431372549</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2091503267973856</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="R6">
-        <v>0.0261437908496732</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="S6">
-        <v>0.326797385620915</v>
+        <v>0.3395348837209302</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1554054054054054</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01351351351351351</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05405405405405406</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1351351351351351</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1891891891891892</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="R7">
-        <v>0.06081081081081081</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="S7">
-        <v>0.3918918918918919</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1099290780141844</v>
+        <v>0.1155913978494624</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01418439716312057</v>
+        <v>0.01881720430107527</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04964539007092199</v>
+        <v>0.0456989247311828</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1205673758865248</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03546099290780142</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1595744680851064</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="R8">
-        <v>0.09219858156028368</v>
+        <v>0.1102150537634409</v>
       </c>
       <c r="S8">
-        <v>0.4184397163120567</v>
+        <v>0.3682795698924731</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1011904761904762</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02976190476190476</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="E9">
-        <v>0.005952380952380952</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F9">
-        <v>0.07738095238095238</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1011904761904762</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04166666666666666</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1607142857142857</v>
+        <v>0.2026431718061674</v>
       </c>
       <c r="R9">
-        <v>0.05357142857142857</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="S9">
-        <v>0.4285714285714285</v>
+        <v>0.3920704845814978</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1107305936073059</v>
+        <v>0.1072555205047319</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0228310502283105</v>
+        <v>0.02050473186119874</v>
       </c>
       <c r="E10">
-        <v>0.001141552511415525</v>
+        <v>0.0007886435331230284</v>
       </c>
       <c r="F10">
-        <v>0.07648401826484018</v>
+        <v>0.0749211356466877</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1324200913242009</v>
+        <v>0.1167192429022082</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007990867579908675</v>
+        <v>0.01261829652996845</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2020547945205479</v>
+        <v>0.2026813880126183</v>
       </c>
       <c r="R10">
-        <v>0.0821917808219178</v>
+        <v>0.09148264984227129</v>
       </c>
       <c r="S10">
-        <v>0.3641552511415525</v>
+        <v>0.3730283911671924</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1650943396226415</v>
+        <v>0.1516129032258065</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0660377358490566</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="K11">
-        <v>0.1886792452830189</v>
+        <v>0.2032258064516129</v>
       </c>
       <c r="L11">
-        <v>0.5330188679245284</v>
+        <v>0.5387096774193548</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04716981132075472</v>
+        <v>0.02580645161290323</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7123287671232876</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1780821917808219</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="K12">
-        <v>0.0136986301369863</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="L12">
-        <v>0.0547945205479452</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0410958904109589</v>
+        <v>0.02808988764044944</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5882352941176471</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1764705882352941</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01398601398601399</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1188811188811189</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="I15">
-        <v>0.04895104895104895</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J15">
-        <v>0.4265734265734266</v>
+        <v>0.4343891402714932</v>
       </c>
       <c r="K15">
-        <v>0.06293706293706294</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04195804195804196</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2867132867132867</v>
+        <v>0.2443438914027149</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02542372881355932</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1610169491525424</v>
+        <v>0.1979695431472081</v>
       </c>
       <c r="I16">
-        <v>0.06779661016949153</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="J16">
-        <v>0.423728813559322</v>
+        <v>0.3959390862944163</v>
       </c>
       <c r="K16">
-        <v>0.1186440677966102</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02542372881355932</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05932203389830509</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1186440677966102</v>
+        <v>0.09644670050761421</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02229299363057325</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1305732484076433</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="I17">
-        <v>0.1146496815286624</v>
+        <v>0.1053763440860215</v>
       </c>
       <c r="J17">
-        <v>0.3885350318471338</v>
+        <v>0.3956989247311828</v>
       </c>
       <c r="K17">
-        <v>0.1114649681528662</v>
+        <v>0.1053763440860215</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02547770700636943</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="N17">
-        <v>0.009554140127388535</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="O17">
-        <v>0.04140127388535032</v>
+        <v>0.05591397849462366</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1560509554140127</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03278688524590164</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1475409836065574</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="I18">
-        <v>0.1147540983606557</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="J18">
-        <v>0.4344262295081967</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="K18">
-        <v>0.06557377049180328</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01639344262295082</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08196721311475409</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1065573770491803</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03131749460043196</v>
+        <v>0.01394585726004922</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1706263498920086</v>
+        <v>0.1706316652994257</v>
       </c>
       <c r="I19">
-        <v>0.101511879049676</v>
+        <v>0.0992616899097621</v>
       </c>
       <c r="J19">
-        <v>0.3563714902807775</v>
+        <v>0.3863822805578343</v>
       </c>
       <c r="K19">
-        <v>0.09503239740820735</v>
+        <v>0.1156685808039377</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0183585313174946</v>
+        <v>0.01968826907301066</v>
       </c>
       <c r="N19">
-        <v>0.002159827213822894</v>
+        <v>0.002461033634126333</v>
       </c>
       <c r="O19">
-        <v>0.05939524838012959</v>
+        <v>0.07465135356849877</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1652267818574514</v>
+        <v>0.1173092698933552</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/William & Mary_B.xlsx
+++ b/team_specific_matrix/William & Mary_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1868852459016394</v>
+        <v>0.187683284457478</v>
       </c>
       <c r="C2">
-        <v>0.580327868852459</v>
+        <v>0.5835777126099707</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01967213114754099</v>
+        <v>0.01759530791788856</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003278688524590164</v>
+        <v>0.002932551319648094</v>
       </c>
       <c r="P2">
-        <v>0.1311475409836066</v>
+        <v>0.1319648093841642</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07868852459016394</v>
+        <v>0.07624633431085044</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02702702702702703</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7243243243243244</v>
+        <v>0.7403846153846154</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2216216216216216</v>
+        <v>0.2067307692307692</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04761904761904762</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7380952380952381</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2142857142857143</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05581395348837209</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004651162790697674</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04651162790697674</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2604651162790698</v>
+        <v>0.2773109243697479</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01395348837209302</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2325581395348837</v>
+        <v>0.2310924369747899</v>
       </c>
       <c r="R6">
-        <v>0.04651162790697674</v>
+        <v>0.04621848739495799</v>
       </c>
       <c r="S6">
-        <v>0.3395348837209302</v>
+        <v>0.3319327731092437</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1515151515151515</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0101010101010101</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06060606060606061</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1060606060606061</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0101010101010101</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1919191919191919</v>
+        <v>0.1839622641509434</v>
       </c>
       <c r="R7">
-        <v>0.07575757575757576</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="S7">
-        <v>0.3939393939393939</v>
+        <v>0.4056603773584906</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1155913978494624</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01881720430107527</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0456989247311828</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1129032258064516</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02419354838709677</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2043010752688172</v>
+        <v>0.2009803921568628</v>
       </c>
       <c r="R8">
-        <v>0.1102150537634409</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="S8">
-        <v>0.3682795698924731</v>
+        <v>0.3725490196078431</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1145374449339207</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02643171806167401</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="E9">
-        <v>0.004405286343612335</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="F9">
-        <v>0.07048458149779736</v>
+        <v>0.06130268199233716</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09251101321585903</v>
+        <v>0.09578544061302682</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03083700440528634</v>
+        <v>0.03065134099616858</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2026431718061674</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R9">
-        <v>0.06607929515418502</v>
+        <v>0.06513409961685823</v>
       </c>
       <c r="S9">
-        <v>0.3920704845814978</v>
+        <v>0.4022988505747127</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1072555205047319</v>
+        <v>0.109851169383416</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02050473186119874</v>
+        <v>0.0219702338766832</v>
       </c>
       <c r="E10">
-        <v>0.0007886435331230284</v>
+        <v>0.0007087172218284905</v>
       </c>
       <c r="F10">
-        <v>0.0749211356466877</v>
+        <v>0.07725017717930546</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1167192429022082</v>
+        <v>0.1119773210489015</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01261829652996845</v>
+        <v>0.01275690999291283</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2026813880126183</v>
+        <v>0.2034018426647768</v>
       </c>
       <c r="R10">
-        <v>0.09148264984227129</v>
+        <v>0.09071580439404678</v>
       </c>
       <c r="S10">
-        <v>0.3730283911671924</v>
+        <v>0.371367824238129</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1516129032258065</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08064516129032258</v>
+        <v>0.08630952380952381</v>
       </c>
       <c r="K11">
-        <v>0.2032258064516129</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L11">
-        <v>0.5387096774193548</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02580645161290323</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7078651685393258</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1797752808988764</v>
+        <v>0.1804123711340206</v>
       </c>
       <c r="K12">
-        <v>0.01685393258426966</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="L12">
-        <v>0.06741573033707865</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02808988764044944</v>
+        <v>0.02577319587628866</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5957446808510638</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2978723404255319</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1063829787234043</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009049773755656109</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1131221719457014</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="I15">
-        <v>0.07692307692307693</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="J15">
-        <v>0.4343891402714932</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="K15">
-        <v>0.07239819004524888</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004524886877828055</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04524886877828054</v>
+        <v>0.04508196721311476</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2443438914027149</v>
+        <v>0.2418032786885246</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02030456852791878</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1979695431472081</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I16">
-        <v>0.1015228426395939</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="J16">
-        <v>0.3959390862944163</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="K16">
-        <v>0.08629441624365482</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03045685279187817</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07106598984771574</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09644670050761421</v>
+        <v>0.0990990990990991</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02150537634408602</v>
+        <v>0.02135922330097087</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1505376344086022</v>
+        <v>0.1533980582524272</v>
       </c>
       <c r="I17">
-        <v>0.1053763440860215</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="J17">
-        <v>0.3956989247311828</v>
+        <v>0.3941747572815534</v>
       </c>
       <c r="K17">
-        <v>0.1053763440860215</v>
+        <v>0.1048543689320388</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02580645161290323</v>
+        <v>0.02330097087378641</v>
       </c>
       <c r="N17">
-        <v>0.006451612903225806</v>
+        <v>0.005825242718446602</v>
       </c>
       <c r="O17">
-        <v>0.05591397849462366</v>
+        <v>0.05631067961165048</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1333333333333333</v>
+        <v>0.1339805825242718</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02040816326530612</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.163265306122449</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="I18">
-        <v>0.1020408163265306</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="J18">
-        <v>0.3979591836734694</v>
+        <v>0.386046511627907</v>
       </c>
       <c r="K18">
-        <v>0.09693877551020408</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02551020408163265</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08673469387755102</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1071428571428571</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01394585726004922</v>
+        <v>0.01404286770140429</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1706316652994257</v>
+        <v>0.1677753141167775</v>
       </c>
       <c r="I19">
-        <v>0.0992616899097621</v>
+        <v>0.1027346637102735</v>
       </c>
       <c r="J19">
-        <v>0.3863822805578343</v>
+        <v>0.3872875092387287</v>
       </c>
       <c r="K19">
-        <v>0.1156685808039377</v>
+        <v>0.1130820399113082</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01968826907301066</v>
+        <v>0.01847745750184775</v>
       </c>
       <c r="N19">
-        <v>0.002461033634126333</v>
+        <v>0.002956393200295639</v>
       </c>
       <c r="O19">
-        <v>0.07465135356849877</v>
+        <v>0.07760532150776053</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1173092698933552</v>
+        <v>0.1160384331116038</v>
       </c>
     </row>
   </sheetData>
